--- a/Pathjs.xlsx
+++ b/Pathjs.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12975" activeTab="1"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12975" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="mysite구조" sheetId="1" r:id="rId1"/>
+    <sheet name="Views 프로세스" sheetId="2" r:id="rId2"/>
+    <sheet name="CMS path" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>mysite (Project)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1304,6 +1305,82 @@
       </rPr>
       <t>&gt;</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book/delete/&lt;int:book_id&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cms/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감상평 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감상평 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감상평 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감상평 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book/modify/&lt;int:book_id&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impression/modify/&lt;int:book_id&gt;/&lt;int:impression_id&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impression/delete/&lt;int:book_id&gt;/&lt;int:impression_id&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book/add/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impression/add/&lt;int:book_id&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impression/&lt;int:book_id&gt;/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2435,7 +2512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
@@ -2552,4 +2629,119 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="48.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>